--- a/Technology/ARBO Testbed/ARBO Testbed_bom_.xlsx
+++ b/Technology/ARBO Testbed/ARBO Testbed_bom_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Box Sync/Biologging/Technology/ARBO Testbed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614F435D-BA19-3143-A2B0-717E50335DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193D5FD-3641-5543-9FE6-8858E46E4691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="-660" yWindow="-19980" windowWidth="32540" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARBO Testbed_bom_" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="170">
   <si>
     <t>Component</t>
   </si>
@@ -530,52 +530,13 @@
   </si>
   <si>
     <t>SER4103CT-ND</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total components:</t>
-  </si>
-  <si>
-    <t>Schematic Version:</t>
-  </si>
-  <si>
-    <t>Schematic Date:</t>
-  </si>
-  <si>
-    <t>BoM Date:</t>
-  </si>
-  <si>
-    <t>Wednesday, December 04, 2019 at 03:34:32 PM</t>
-  </si>
-  <si>
-    <t>Schematic Source:</t>
-  </si>
-  <si>
-    <t>/Users/matt/Box Sync/Biologging/Technology/ARBO Testbed/ARBO Testbed.sch</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>Eeschema (5.1.2-1)-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -706,6 +667,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1052,8 +1020,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1408,1003 +1379,945 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="37.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>473093351</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>1050170001</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="53" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>